--- a/medicine/Maladies infectieuses/Cyclosporose/Cyclosporose.xlsx
+++ b/medicine/Maladies infectieuses/Cyclosporose/Cyclosporose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cyclosporose est une maladie parasitaire due à l'ingestion de coccidies Cyclospora cayetanensis. Chez l'homme elle infeste les cellules intestinales sous une forme sporocytaire à deux sporozoïdes.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en 1977 que le potentiel pathologique de Cyclospora cayetanensis est reconnu pour la première fois[1]. 
-Une alerte épidémique en Amérique du Nord entre mai et juillet 1996 attire l'attention de la communauté scientifique[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1977 que le potentiel pathologique de Cyclospora cayetanensis est reconnu pour la première fois. 
+Une alerte épidémique en Amérique du Nord entre mai et juillet 1996 attire l'attention de la communauté scientifique,.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au retour d'une zone d'endémie, après une semaine d'incubation peuvent survenir des signes généraux et digestifs tels que[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au retour d'une zone d'endémie, après une semaine d'incubation peuvent survenir des signes généraux et digestifs tels que :
 diarrhées aqueuses ;
 selles fréquentes ;
 perte d'appétit ;
@@ -607,7 +627,7 @@
 fatigue ;
 flatulences augmentées ;
 fièvre modérée.
-Les symptômes sont d'autant plus sévères que le sujet atteint est particulièrement jeune ou au contraire âgé[2].
+Les symptômes sont d'autant plus sévères que le sujet atteint est particulièrement jeune ou au contraire âgé.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cyclosporose est diagnostiquée par l'examen direct des selles grâce à la fluorescence de la paroi de Cyclospora cayetanensis[2],[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cyclosporose est diagnostiquée par l'examen direct des selles grâce à la fluorescence de la paroi de Cyclospora cayetanensis,.
 </t>
         </is>
       </c>
@@ -667,9 +689,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son traitement repose principalement sur la prévention liée au péril fécal, individuelle et collective et à un traitement antibiotique qui est le cotrimoxazole[1], éventuellement remplacé par la ciprofloxacine[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son traitement repose principalement sur la prévention liée au péril fécal, individuelle et collective et à un traitement antibiotique qui est le cotrimoxazole, éventuellement remplacé par la ciprofloxacine.
 </t>
         </is>
       </c>
